--- a/Data/Quarterly_by_Marcos_Project.xlsx
+++ b/Data/Quarterly_by_Marcos_Project.xlsx
@@ -1485,10 +1485,10 @@
   <dimension ref="A1:CG937"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="R51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="BS6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="X5" sqref="W4:CB5"/>
+      <selection pane="bottomRight" activeCell="CB9" sqref="CB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4792,7 +4792,7 @@
         <v>47.460999999999999</v>
       </c>
       <c r="BA26" s="10">
-        <f>AT26+AY26</f>
+        <f t="shared" ref="BA26:BA89" si="0">AT26+AY26</f>
         <v>10.256</v>
       </c>
       <c r="BB26" s="10"/>
@@ -4900,7 +4900,7 @@
         <v>48.177999999999997</v>
       </c>
       <c r="BA27" s="10">
-        <f>AT27+AY27</f>
+        <f t="shared" si="0"/>
         <v>10.388000000000002</v>
       </c>
       <c r="BB27" s="10"/>
@@ -5008,7 +5008,7 @@
         <v>49.314999999999998</v>
       </c>
       <c r="BA28" s="10">
-        <f>AT28+AY28</f>
+        <f t="shared" si="0"/>
         <v>11.040000000000001</v>
       </c>
       <c r="BB28" s="10"/>
@@ -5116,7 +5116,7 @@
         <v>50.603000000000002</v>
       </c>
       <c r="BA29" s="10">
-        <f>AT29+AY29</f>
+        <f t="shared" si="0"/>
         <v>11.203999999999999</v>
       </c>
       <c r="BB29" s="10"/>
@@ -5224,7 +5224,7 @@
         <v>52.143999999999998</v>
       </c>
       <c r="BA30" s="10">
-        <f>AT30+AY30</f>
+        <f t="shared" si="0"/>
         <v>11.504</v>
       </c>
       <c r="BB30" s="10"/>
@@ -5332,7 +5332,7 @@
         <v>53.505000000000003</v>
       </c>
       <c r="BA31" s="10">
-        <f>AT31+AY31</f>
+        <f t="shared" si="0"/>
         <v>11.564</v>
       </c>
       <c r="BB31" s="10"/>
@@ -5440,7 +5440,7 @@
         <v>54.819000000000003</v>
       </c>
       <c r="BA32" s="10">
-        <f>AT32+AY32</f>
+        <f t="shared" si="0"/>
         <v>11.576000000000001</v>
       </c>
       <c r="BB32" s="10"/>
@@ -5548,7 +5548,7 @@
         <v>56.031999999999996</v>
       </c>
       <c r="BA33" s="10">
-        <f>AT33+AY33</f>
+        <f t="shared" si="0"/>
         <v>12.012</v>
       </c>
       <c r="BB33" s="10"/>
@@ -5656,7 +5656,7 @@
         <v>57.313000000000002</v>
       </c>
       <c r="BA34" s="10">
-        <f>AT34+AY34</f>
+        <f t="shared" si="0"/>
         <v>12.064</v>
       </c>
       <c r="BB34" s="10"/>
@@ -5764,7 +5764,7 @@
         <v>58.42</v>
       </c>
       <c r="BA35" s="10">
-        <f>AT35+AY35</f>
+        <f t="shared" si="0"/>
         <v>12.284000000000001</v>
       </c>
       <c r="BB35" s="10"/>
@@ -5872,7 +5872,7 @@
         <v>59.488</v>
       </c>
       <c r="BA36" s="10">
-        <f>AT36+AY36</f>
+        <f t="shared" si="0"/>
         <v>12.436000000000002</v>
       </c>
       <c r="BB36" s="10"/>
@@ -5980,7 +5980,7 @@
         <v>60.448</v>
       </c>
       <c r="BA37" s="10">
-        <f>AT37+AY37</f>
+        <f t="shared" si="0"/>
         <v>12.260000000000002</v>
       </c>
       <c r="BB37" s="10"/>
@@ -6088,7 +6088,7 @@
         <v>61.091999999999999</v>
       </c>
       <c r="BA38" s="10">
-        <f>AT38+AY38</f>
+        <f t="shared" si="0"/>
         <v>12.116</v>
       </c>
       <c r="BB38" s="10"/>
@@ -6196,7 +6196,7 @@
         <v>62.003</v>
       </c>
       <c r="BA39" s="10">
-        <f>AT39+AY39</f>
+        <f t="shared" si="0"/>
         <v>12.219999999999999</v>
       </c>
       <c r="BB39" s="10"/>
@@ -6307,7 +6307,7 @@
         <v>62.942999999999998</v>
       </c>
       <c r="BA40" s="10">
-        <f>AT40+AY40</f>
+        <f t="shared" si="0"/>
         <v>12.107999999999999</v>
       </c>
       <c r="BB40" s="10"/>
@@ -6418,7 +6418,7 @@
         <v>63.781999999999996</v>
       </c>
       <c r="BA41" s="10">
-        <f>AT41+AY41</f>
+        <f t="shared" si="0"/>
         <v>11.8</v>
       </c>
       <c r="BB41" s="10"/>
@@ -6541,7 +6541,7 @@
         <v>64.463999999999999</v>
       </c>
       <c r="BA42" s="10">
-        <f>AT42+AY42</f>
+        <f t="shared" si="0"/>
         <v>12.744</v>
       </c>
       <c r="BB42" s="10"/>
@@ -6664,7 +6664,7 @@
         <v>65.122</v>
       </c>
       <c r="BA43" s="10">
-        <f>AT43+AY43</f>
+        <f t="shared" si="0"/>
         <v>13.196000000000002</v>
       </c>
       <c r="BB43" s="10"/>
@@ -6788,7 +6788,7 @@
         <v>65.789000000000001</v>
       </c>
       <c r="BA44" s="10">
-        <f>AT44+AY44</f>
+        <f t="shared" si="0"/>
         <v>13.712</v>
       </c>
       <c r="BB44" s="10"/>
@@ -6912,7 +6912,7 @@
         <v>66.397000000000006</v>
       </c>
       <c r="BA45" s="10">
-        <f>AT45+AY45</f>
+        <f t="shared" si="0"/>
         <v>14.076000000000001</v>
       </c>
       <c r="BB45" s="10"/>
@@ -7041,7 +7041,7 @@
         <v>66.984999999999999</v>
       </c>
       <c r="BA46" s="10">
-        <f>AT46+AY46</f>
+        <f t="shared" si="0"/>
         <v>14.028</v>
       </c>
       <c r="BB46" s="10"/>
@@ -7206,7 +7206,7 @@
         <v>67.587999999999994</v>
       </c>
       <c r="BA47" s="10">
-        <f>AT47+AY47</f>
+        <f t="shared" si="0"/>
         <v>14.096</v>
       </c>
       <c r="BB47" s="10"/>
@@ -7371,7 +7371,7 @@
         <v>68.203999999999994</v>
       </c>
       <c r="BA48" s="10">
-        <f>AT48+AY48</f>
+        <f t="shared" si="0"/>
         <v>14.332000000000001</v>
       </c>
       <c r="BB48" s="10"/>
@@ -7536,7 +7536,7 @@
         <v>68.825000000000003</v>
       </c>
       <c r="BA49" s="10">
-        <f>AT49+AY49</f>
+        <f t="shared" si="0"/>
         <v>14.224</v>
       </c>
       <c r="BB49" s="10"/>
@@ -7701,7 +7701,7 @@
         <v>69.495999999999995</v>
       </c>
       <c r="BA50" s="10">
-        <f>AT50+AY50</f>
+        <f t="shared" si="0"/>
         <v>14.155999999999999</v>
       </c>
       <c r="BB50" s="10"/>
@@ -7869,7 +7869,7 @@
         <v>70.185000000000002</v>
       </c>
       <c r="BA51" s="10">
-        <f>AT51+AY51</f>
+        <f t="shared" si="0"/>
         <v>14.192</v>
       </c>
       <c r="BB51" s="10"/>
@@ -8043,7 +8043,7 @@
         <v>70.960999999999999</v>
       </c>
       <c r="BA52" s="10">
-        <f>AT52+AY52</f>
+        <f t="shared" si="0"/>
         <v>14.48</v>
       </c>
       <c r="BB52" s="10"/>
@@ -8217,7 +8217,7 @@
         <v>71.775999999999996</v>
       </c>
       <c r="BA53" s="10">
-        <f>AT53+AY53</f>
+        <f t="shared" si="0"/>
         <v>15.032</v>
       </c>
       <c r="BB53" s="10"/>
@@ -8393,7 +8393,7 @@
         <v>72.701999999999998</v>
       </c>
       <c r="BA54" s="10">
-        <f>AT54+AY54</f>
+        <f t="shared" si="0"/>
         <v>15.204000000000001</v>
       </c>
       <c r="BB54" s="10"/>
@@ -8569,7 +8569,7 @@
         <v>73.528999999999996</v>
       </c>
       <c r="BA55" s="10">
-        <f>AT55+AY55</f>
+        <f t="shared" si="0"/>
         <v>15.672000000000001</v>
       </c>
       <c r="BB55" s="10"/>
@@ -8745,7 +8745,7 @@
         <v>74.549000000000007</v>
       </c>
       <c r="BA56" s="10">
-        <f>AT56+AY56</f>
+        <f t="shared" si="0"/>
         <v>15.884</v>
       </c>
       <c r="BB56" s="10"/>
@@ -8921,7 +8921,7 @@
         <v>75.608000000000004</v>
       </c>
       <c r="BA57" s="10">
-        <f>AT57+AY57</f>
+        <f t="shared" si="0"/>
         <v>16.040000000000003</v>
       </c>
       <c r="BB57" s="10"/>
@@ -9097,7 +9097,7 @@
         <v>76.518000000000001</v>
       </c>
       <c r="BA58" s="10">
-        <f>AT58+AY58</f>
+        <f t="shared" si="0"/>
         <v>16.504000000000001</v>
       </c>
       <c r="BB58" s="10"/>
@@ -9273,7 +9273,7 @@
         <v>77.525999999999996</v>
       </c>
       <c r="BA59" s="10">
-        <f>AT59+AY59</f>
+        <f t="shared" si="0"/>
         <v>16.86</v>
       </c>
       <c r="BB59" s="10"/>
@@ -9449,7 +9449,7 @@
         <v>78.503</v>
       </c>
       <c r="BA60" s="10">
-        <f>AT60+AY60</f>
+        <f t="shared" si="0"/>
         <v>17.128</v>
       </c>
       <c r="BB60" s="10"/>
@@ -9625,7 +9625,7 @@
         <v>79.524000000000001</v>
       </c>
       <c r="BA61" s="10">
-        <f>AT61+AY61</f>
+        <f t="shared" si="0"/>
         <v>17.62</v>
       </c>
       <c r="BB61" s="10"/>
@@ -9801,7 +9801,7 @@
         <v>80.617000000000004</v>
       </c>
       <c r="BA62" s="10">
-        <f>AT62+AY62</f>
+        <f t="shared" si="0"/>
         <v>18.88</v>
       </c>
       <c r="BB62" s="10"/>
@@ -9977,7 +9977,7 @@
         <v>81.754999999999995</v>
       </c>
       <c r="BA63" s="10">
-        <f>AT63+AY63</f>
+        <f t="shared" si="0"/>
         <v>19.512</v>
       </c>
       <c r="BB63" s="10"/>
@@ -10153,7 +10153,7 @@
         <v>82.944999999999993</v>
       </c>
       <c r="BA64" s="10">
-        <f>AT64+AY64</f>
+        <f t="shared" si="0"/>
         <v>19.931999999999999</v>
       </c>
       <c r="BB64" s="10"/>
@@ -10329,7 +10329,7 @@
         <v>84.239000000000004</v>
       </c>
       <c r="BA65" s="10">
-        <f>AT65+AY65</f>
+        <f t="shared" si="0"/>
         <v>20.456</v>
       </c>
       <c r="BB65" s="10"/>
@@ -10505,7 +10505,7 @@
         <v>85.614999999999995</v>
       </c>
       <c r="BA66" s="10">
-        <f>AT66+AY66</f>
+        <f t="shared" si="0"/>
         <v>20.336000000000002</v>
       </c>
       <c r="BB66" s="10"/>
@@ -10681,7 +10681,7 @@
         <v>87.146000000000001</v>
       </c>
       <c r="BA67" s="10">
-        <f>AT67+AY67</f>
+        <f t="shared" si="0"/>
         <v>21.064</v>
       </c>
       <c r="BB67" s="10"/>
@@ -10857,7 +10857,7 @@
         <v>88.772999999999996</v>
       </c>
       <c r="BA68" s="10">
-        <f>AT68+AY68</f>
+        <f t="shared" si="0"/>
         <v>21.8</v>
       </c>
       <c r="BB68" s="10"/>
@@ -11033,7 +11033,7 @@
         <v>90.49</v>
       </c>
       <c r="BA69" s="10">
-        <f>AT69+AY69</f>
+        <f t="shared" si="0"/>
         <v>22.484000000000002</v>
       </c>
       <c r="BB69" s="10"/>
@@ -11209,7 +11209,7 @@
         <v>92.31</v>
       </c>
       <c r="BA70" s="10">
-        <f>AT70+AY70</f>
+        <f t="shared" si="0"/>
         <v>22.648000000000003</v>
       </c>
       <c r="BB70" s="10"/>
@@ -11385,7 +11385,7 @@
         <v>94.337999999999994</v>
       </c>
       <c r="BA71" s="10">
-        <f>AT71+AY71</f>
+        <f t="shared" si="0"/>
         <v>22.355999999999998</v>
       </c>
       <c r="BB71" s="10"/>
@@ -11561,7 +11561,7 @@
         <v>96.287999999999997</v>
       </c>
       <c r="BA72" s="10">
-        <f>AT72+AY72</f>
+        <f t="shared" si="0"/>
         <v>22.184000000000001</v>
       </c>
       <c r="BB72" s="10"/>
@@ -11737,7 +11737,7 @@
         <v>98.3</v>
       </c>
       <c r="BA73" s="10">
-        <f>AT73+AY73</f>
+        <f t="shared" si="0"/>
         <v>21.756</v>
       </c>
       <c r="BB73" s="10"/>
@@ -11913,7 +11913,7 @@
         <v>100.268</v>
       </c>
       <c r="BA74" s="10">
-        <f>AT74+AY74</f>
+        <f t="shared" si="0"/>
         <v>22.843999999999998</v>
       </c>
       <c r="BB74" s="15">
@@ -12091,7 +12091,7 @@
         <v>102.35</v>
       </c>
       <c r="BA75" s="10">
-        <f>AT75+AY75</f>
+        <f t="shared" si="0"/>
         <v>23.456</v>
       </c>
       <c r="BB75" s="15">
@@ -12269,7 +12269,7 @@
         <v>104.619</v>
       </c>
       <c r="BA76" s="10">
-        <f>AT76+AY76</f>
+        <f t="shared" si="0"/>
         <v>23.864000000000001</v>
       </c>
       <c r="BB76" s="15">
@@ -12447,7 +12447,7 @@
         <v>106.985</v>
       </c>
       <c r="BA77" s="10">
-        <f>AT77+AY77</f>
+        <f t="shared" si="0"/>
         <v>23.164000000000001</v>
       </c>
       <c r="BB77" s="15">
@@ -12641,7 +12641,7 @@
         <v>109.496</v>
       </c>
       <c r="BA78" s="10">
-        <f>AT78+AY78</f>
+        <f t="shared" si="0"/>
         <v>24.776</v>
       </c>
       <c r="BB78" s="15">
@@ -12835,7 +12835,7 @@
         <v>111.946</v>
       </c>
       <c r="BA79" s="10">
-        <f>AT79+AY79</f>
+        <f t="shared" si="0"/>
         <v>25.687999999999999</v>
       </c>
       <c r="BB79" s="15">
@@ -13029,7 +13029,7 @@
         <v>114.53400000000001</v>
       </c>
       <c r="BA80" s="10">
-        <f>AT80+AY80</f>
+        <f t="shared" si="0"/>
         <v>26.372</v>
       </c>
       <c r="BB80" s="15">
@@ -13225,7 +13225,7 @@
         <v>117.45</v>
       </c>
       <c r="BA81" s="10">
-        <f>AT81+AY81</f>
+        <f t="shared" si="0"/>
         <v>26.712</v>
       </c>
       <c r="BB81" s="15">
@@ -13446,7 +13446,7 @@
         <v>120.465</v>
       </c>
       <c r="BA82" s="10">
-        <f>AT82+AY82</f>
+        <f t="shared" si="0"/>
         <v>26.644000000000002</v>
       </c>
       <c r="BB82" s="15">
@@ -13667,7 +13667,7 @@
         <v>123.506</v>
       </c>
       <c r="BA83" s="10">
-        <f>AT83+AY83</f>
+        <f t="shared" si="0"/>
         <v>27.007999999999999</v>
       </c>
       <c r="BB83" s="15">
@@ -13888,7 +13888,7 @@
         <v>126.325</v>
       </c>
       <c r="BA84" s="10">
-        <f>AT84+AY84</f>
+        <f t="shared" si="0"/>
         <v>27.268000000000001</v>
       </c>
       <c r="BB84" s="15">
@@ -14108,7 +14108,7 @@
         <v>129.28899999999999</v>
       </c>
       <c r="BA85" s="10">
-        <f>AT85+AY85</f>
+        <f t="shared" si="0"/>
         <v>27.804000000000002</v>
       </c>
       <c r="BB85" s="15">
@@ -14329,7 +14329,7 @@
         <v>132.239</v>
       </c>
       <c r="BA86" s="10">
-        <f>AT86+AY86</f>
+        <f t="shared" si="0"/>
         <v>27.795999999999999</v>
       </c>
       <c r="BB86" s="15">
@@ -14549,7 +14549,7 @@
         <v>135.27199999999999</v>
       </c>
       <c r="BA87" s="10">
-        <f>AT87+AY87</f>
+        <f t="shared" si="0"/>
         <v>27.628</v>
       </c>
       <c r="BB87" s="15">
@@ -14777,7 +14777,7 @@
         <v>138.327</v>
       </c>
       <c r="BA88" s="10">
-        <f>AT88+AY88</f>
+        <f t="shared" si="0"/>
         <v>27.712</v>
       </c>
       <c r="BB88" s="15">
@@ -15005,7 +15005,7 @@
         <v>141.511</v>
       </c>
       <c r="BA89" s="10">
-        <f>AT89+AY89</f>
+        <f t="shared" si="0"/>
         <v>27.568000000000001</v>
       </c>
       <c r="BB89" s="15">
@@ -15233,7 +15233,7 @@
         <v>144.64599999999999</v>
       </c>
       <c r="BA90" s="10">
-        <f>AT90+AY90</f>
+        <f t="shared" ref="BA90:BA153" si="1">AT90+AY90</f>
         <v>28.323999999999998</v>
       </c>
       <c r="BB90" s="15">
@@ -15461,7 +15461,7 @@
         <v>147.59700000000001</v>
       </c>
       <c r="BA91" s="10">
-        <f>AT91+AY91</f>
+        <f t="shared" si="1"/>
         <v>28.087999999999997</v>
       </c>
       <c r="BB91" s="15">
@@ -15689,7 +15689,7 @@
         <v>150.36099999999999</v>
       </c>
       <c r="BA92" s="10">
-        <f>AT92+AY92</f>
+        <f t="shared" si="1"/>
         <v>28.408000000000001</v>
       </c>
       <c r="BB92" s="15">
@@ -15917,7 +15917,7 @@
         <v>153.09899999999999</v>
       </c>
       <c r="BA93" s="10">
-        <f>AT93+AY93</f>
+        <f t="shared" si="1"/>
         <v>28.16</v>
       </c>
       <c r="BB93" s="15">
@@ -16145,7 +16145,7 @@
         <v>155.94200000000001</v>
       </c>
       <c r="BA94" s="10">
-        <f>AT94+AY94</f>
+        <f t="shared" si="1"/>
         <v>29.16</v>
       </c>
       <c r="BB94" s="15">
@@ -16373,7 +16373,7 @@
         <v>158.952</v>
       </c>
       <c r="BA95" s="10">
-        <f>AT95+AY95</f>
+        <f t="shared" si="1"/>
         <v>29.416</v>
       </c>
       <c r="BB95" s="15">
@@ -16601,7 +16601,7 @@
         <v>162.70500000000001</v>
       </c>
       <c r="BA96" s="10">
-        <f>AT96+AY96</f>
+        <f t="shared" si="1"/>
         <v>30.02</v>
       </c>
       <c r="BB96" s="15">
@@ -16829,7 +16829,7 @@
         <v>166.434</v>
       </c>
       <c r="BA97" s="10">
-        <f>AT97+AY97</f>
+        <f t="shared" si="1"/>
         <v>30.896000000000001</v>
       </c>
       <c r="BB97" s="15">
@@ -17057,7 +17057,7 @@
         <v>170.49</v>
       </c>
       <c r="BA98" s="10">
-        <f>AT98+AY98</f>
+        <f t="shared" si="1"/>
         <v>31.96</v>
       </c>
       <c r="BB98" s="15">
@@ -17290,7 +17290,7 @@
         <v>175.393</v>
       </c>
       <c r="BA99" s="10">
-        <f>AT99+AY99</f>
+        <f t="shared" si="1"/>
         <v>33.331999999999994</v>
       </c>
       <c r="BB99" s="15">
@@ -17523,7 +17523,7 @@
         <v>181.24</v>
       </c>
       <c r="BA100" s="10">
-        <f>AT100+AY100</f>
+        <f t="shared" si="1"/>
         <v>34.863999999999997</v>
       </c>
       <c r="BB100" s="15">
@@ -17756,7 +17756,7 @@
         <v>187.608</v>
       </c>
       <c r="BA101" s="10">
-        <f>AT101+AY101</f>
+        <f t="shared" si="1"/>
         <v>36.207999999999998</v>
       </c>
       <c r="BB101" s="15">
@@ -17989,7 +17989,7 @@
         <v>194.309</v>
       </c>
       <c r="BA102" s="10">
-        <f>AT102+AY102</f>
+        <f t="shared" si="1"/>
         <v>37.488</v>
       </c>
       <c r="BB102" s="15">
@@ -18222,7 +18222,7 @@
         <v>202.126</v>
       </c>
       <c r="BA103" s="10">
-        <f>AT103+AY103</f>
+        <f t="shared" si="1"/>
         <v>38.567999999999998</v>
       </c>
       <c r="BB103" s="15">
@@ -18456,7 +18456,7 @@
         <v>211.18100000000001</v>
       </c>
       <c r="BA104" s="10">
-        <f>AT104+AY104</f>
+        <f t="shared" si="1"/>
         <v>39.167999999999999</v>
       </c>
       <c r="BB104" s="15">
@@ -18689,7 +18689,7 @@
         <v>219.95699999999999</v>
       </c>
       <c r="BA105" s="10">
-        <f>AT105+AY105</f>
+        <f t="shared" si="1"/>
         <v>38.96</v>
       </c>
       <c r="BB105" s="15">
@@ -18922,7 +18922,7 @@
         <v>228.744</v>
       </c>
       <c r="BA106" s="10">
-        <f>AT106+AY106</f>
+        <f t="shared" si="1"/>
         <v>38.155999999999999</v>
       </c>
       <c r="BB106" s="15">
@@ -19155,7 +19155,7 @@
         <v>235.77799999999999</v>
       </c>
       <c r="BA107" s="10">
-        <f>AT107+AY107</f>
+        <f t="shared" si="1"/>
         <v>37.812000000000005</v>
       </c>
       <c r="BB107" s="15">
@@ -19388,7 +19388,7 @@
         <v>242.13200000000001</v>
       </c>
       <c r="BA108" s="10">
-        <f>AT108+AY108</f>
+        <f t="shared" si="1"/>
         <v>37.800000000000004</v>
       </c>
       <c r="BB108" s="15">
@@ -19621,7 +19621,7 @@
         <v>247.39099999999999</v>
       </c>
       <c r="BA109" s="10">
-        <f>AT109+AY109</f>
+        <f t="shared" si="1"/>
         <v>38.636000000000003</v>
       </c>
       <c r="BB109" s="15">
@@ -19854,7 +19854,7 @@
         <v>251.92599999999999</v>
       </c>
       <c r="BA110" s="10">
-        <f>AT110+AY110</f>
+        <f t="shared" si="1"/>
         <v>41.7</v>
       </c>
       <c r="BB110" s="15">
@@ -20087,7 +20087,7 @@
         <v>256.69900000000001</v>
       </c>
       <c r="BA111" s="10">
-        <f>AT111+AY111</f>
+        <f t="shared" si="1"/>
         <v>43.707999999999998</v>
       </c>
       <c r="BB111" s="15">
@@ -20320,7 +20320,7 @@
         <v>262.69200000000001</v>
       </c>
       <c r="BA112" s="10">
-        <f>AT112+AY112</f>
+        <f t="shared" si="1"/>
         <v>45.655999999999999</v>
       </c>
       <c r="BB112" s="15">
@@ -20553,7 +20553,7 @@
         <v>269.589</v>
       </c>
       <c r="BA113" s="10">
-        <f>AT113+AY113</f>
+        <f t="shared" si="1"/>
         <v>47.68</v>
       </c>
       <c r="BB113" s="15">
@@ -20786,7 +20786,7 @@
         <v>277.53699999999998</v>
       </c>
       <c r="BA114" s="10">
-        <f>AT114+AY114</f>
+        <f t="shared" si="1"/>
         <v>48.448</v>
       </c>
       <c r="BB114" s="15">
@@ -21019,7 +21019,7 @@
         <v>285.66000000000003</v>
       </c>
       <c r="BA115" s="10">
-        <f>AT115+AY115</f>
+        <f t="shared" si="1"/>
         <v>49.680000000000007</v>
       </c>
       <c r="BB115" s="15">
@@ -21252,7 +21252,7 @@
         <v>293.75599999999997</v>
       </c>
       <c r="BA116" s="10">
-        <f>AT116+AY116</f>
+        <f t="shared" si="1"/>
         <v>51.36</v>
       </c>
       <c r="BB116" s="15">
@@ -21485,7 +21485,7 @@
         <v>302.36399999999998</v>
       </c>
       <c r="BA117" s="10">
-        <f>AT117+AY117</f>
+        <f t="shared" si="1"/>
         <v>52.692</v>
       </c>
       <c r="BB117" s="15">
@@ -21719,7 +21719,7 @@
         <v>311.59800000000001</v>
       </c>
       <c r="BA118" s="10">
-        <f>AT118+AY118</f>
+        <f t="shared" si="1"/>
         <v>54.428000000000004</v>
       </c>
       <c r="BB118" s="15">
@@ -21955,7 +21955,7 @@
         <v>321.99900000000002</v>
       </c>
       <c r="BA119" s="10">
-        <f>AT119+AY119</f>
+        <f t="shared" si="1"/>
         <v>55.896000000000001</v>
       </c>
       <c r="BB119" s="15">
@@ -22191,7 +22191,7 @@
         <v>331.98</v>
       </c>
       <c r="BA120" s="10">
-        <f>AT120+AY120</f>
+        <f t="shared" si="1"/>
         <v>58.795999999999999</v>
       </c>
       <c r="BB120" s="15">
@@ -22427,7 +22427,7 @@
         <v>343.202</v>
       </c>
       <c r="BA121" s="10">
-        <f>AT121+AY121</f>
+        <f t="shared" si="1"/>
         <v>61.42</v>
       </c>
       <c r="BB121" s="15">
@@ -22663,7 +22663,7 @@
         <v>354.779</v>
       </c>
       <c r="BA122" s="10">
-        <f>AT122+AY122</f>
+        <f t="shared" si="1"/>
         <v>63.411999999999999</v>
       </c>
       <c r="BB122" s="15">
@@ -22899,7 +22899,7 @@
         <v>367.22500000000002</v>
       </c>
       <c r="BA123" s="10">
-        <f>AT123+AY123</f>
+        <f t="shared" si="1"/>
         <v>65.536000000000001</v>
       </c>
       <c r="BB123" s="15">
@@ -23135,7 +23135,7 @@
         <v>380.30799999999999</v>
       </c>
       <c r="BA124" s="10">
-        <f>AT124+AY124</f>
+        <f t="shared" si="1"/>
         <v>67.319999999999993</v>
       </c>
       <c r="BB124" s="15">
@@ -23371,7 +23371,7 @@
         <v>393.209</v>
       </c>
       <c r="BA125" s="10">
-        <f>AT125+AY125</f>
+        <f t="shared" si="1"/>
         <v>69.956000000000003</v>
       </c>
       <c r="BB125" s="15">
@@ -23607,7 +23607,7 @@
         <v>406.75</v>
       </c>
       <c r="BA126" s="10">
-        <f>AT126+AY126</f>
+        <f t="shared" si="1"/>
         <v>73.116</v>
       </c>
       <c r="BB126" s="15">
@@ -23843,7 +23843,7 @@
         <v>420.96800000000002</v>
       </c>
       <c r="BA127" s="10">
-        <f>AT127+AY127</f>
+        <f t="shared" si="1"/>
         <v>76.287999999999997</v>
       </c>
       <c r="BB127" s="15">
@@ -24079,7 +24079,7 @@
         <v>435.363</v>
       </c>
       <c r="BA128" s="10">
-        <f>AT128+AY128</f>
+        <f t="shared" si="1"/>
         <v>75.476000000000013</v>
       </c>
       <c r="BB128" s="15">
@@ -24315,7 +24315,7 @@
         <v>450.637</v>
       </c>
       <c r="BA129" s="10">
-        <f>AT129+AY129</f>
+        <f t="shared" si="1"/>
         <v>77.12</v>
       </c>
       <c r="BB129" s="15">
@@ -24551,7 +24551,7 @@
         <v>465.54199999999997</v>
       </c>
       <c r="BA130" s="10">
-        <f>AT130+AY130</f>
+        <f t="shared" si="1"/>
         <v>81.475999999999999</v>
       </c>
       <c r="BB130" s="15">
@@ -24787,7 +24787,7 @@
         <v>480.43099999999998</v>
       </c>
       <c r="BA131" s="10">
-        <f>AT131+AY131</f>
+        <f t="shared" si="1"/>
         <v>86.103999999999999</v>
       </c>
       <c r="BB131" s="15">
@@ -25023,7 +25023,7 @@
         <v>494.517</v>
       </c>
       <c r="BA132" s="10">
-        <f>AT132+AY132</f>
+        <f t="shared" si="1"/>
         <v>90.22</v>
       </c>
       <c r="BB132" s="15">
@@ -25259,7 +25259,7 @@
         <v>508.42599999999999</v>
       </c>
       <c r="BA133" s="10">
-        <f>AT133+AY133</f>
+        <f t="shared" si="1"/>
         <v>92.512</v>
       </c>
       <c r="BB133" s="15">
@@ -25495,7 +25495,7 @@
         <v>521.92600000000004</v>
       </c>
       <c r="BA134" s="10">
-        <f>AT134+AY134</f>
+        <f t="shared" si="1"/>
         <v>92.549000000000007</v>
       </c>
       <c r="BB134" s="15">
@@ -25731,7 +25731,7 @@
         <v>533.87699999999995</v>
       </c>
       <c r="BA135" s="10">
-        <f>AT135+AY135</f>
+        <f t="shared" si="1"/>
         <v>91.990000000000009</v>
       </c>
       <c r="BB135" s="15">
@@ -25967,7 +25967,7 @@
         <v>542.74900000000002</v>
       </c>
       <c r="BA136" s="10">
-        <f>AT136+AY136</f>
+        <f t="shared" si="1"/>
         <v>92.367000000000004</v>
       </c>
       <c r="BB136" s="15">
@@ -26203,7 +26203,7 @@
         <v>549.30100000000004</v>
       </c>
       <c r="BA137" s="10">
-        <f>AT137+AY137</f>
+        <f t="shared" si="1"/>
         <v>93.981999999999999</v>
       </c>
       <c r="BB137" s="15">
@@ -26439,7 +26439,7 @@
         <v>552.30700000000002</v>
       </c>
       <c r="BA138" s="10">
-        <f>AT138+AY138</f>
+        <f t="shared" si="1"/>
         <v>94.913000000000011</v>
       </c>
       <c r="BB138" s="15">
@@ -26677,7 +26677,7 @@
         <v>559.08100000000002</v>
       </c>
       <c r="BA139" s="10">
-        <f>AT139+AY139</f>
+        <f t="shared" si="1"/>
         <v>95.963999999999999</v>
       </c>
       <c r="BB139" s="15">
@@ -26915,7 +26915,7 @@
         <v>566.16899999999998</v>
       </c>
       <c r="BA140" s="10">
-        <f>AT140+AY140</f>
+        <f t="shared" si="1"/>
         <v>98.591999999999999</v>
       </c>
       <c r="BB140" s="15">
@@ -27153,7 +27153,7 @@
         <v>572.93200000000002</v>
       </c>
       <c r="BA141" s="10">
-        <f>AT141+AY141</f>
+        <f t="shared" si="1"/>
         <v>101.152</v>
       </c>
       <c r="BB141" s="15">
@@ -27391,7 +27391,7 @@
         <v>582.24599999999998</v>
       </c>
       <c r="BA142" s="10">
-        <f>AT142+AY142</f>
+        <f t="shared" si="1"/>
         <v>104.02500000000001</v>
       </c>
       <c r="BB142" s="15">
@@ -27629,7 +27629,7 @@
         <v>591.49300000000005</v>
       </c>
       <c r="BA143" s="10">
-        <f>AT143+AY143</f>
+        <f t="shared" si="1"/>
         <v>106.59299999999999</v>
       </c>
       <c r="BB143" s="15">
@@ -27867,7 +27867,7 @@
         <v>603.17600000000004</v>
       </c>
       <c r="BA144" s="10">
-        <f>AT144+AY144</f>
+        <f t="shared" si="1"/>
         <v>107.37599999999999</v>
       </c>
       <c r="BB144" s="15">
@@ -28105,7 +28105,7 @@
         <v>616.66899999999998</v>
       </c>
       <c r="BA145" s="10">
-        <f>AT145+AY145</f>
+        <f t="shared" si="1"/>
         <v>109.41799999999999</v>
       </c>
       <c r="BB145" s="15">
@@ -28343,7 +28343,7 @@
         <v>623.649</v>
       </c>
       <c r="BA146" s="10">
-        <f>AT146+AY146</f>
+        <f t="shared" si="1"/>
         <v>113.59099999999999</v>
       </c>
       <c r="BB146" s="15">
@@ -28581,7 +28581,7 @@
         <v>634.56100000000004</v>
       </c>
       <c r="BA147" s="10">
-        <f>AT147+AY147</f>
+        <f t="shared" si="1"/>
         <v>115.14099999999999</v>
       </c>
       <c r="BB147" s="15">
@@ -28819,7 +28819,7 @@
         <v>645.16499999999996</v>
       </c>
       <c r="BA148" s="10">
-        <f>AT148+AY148</f>
+        <f t="shared" si="1"/>
         <v>115.833</v>
       </c>
       <c r="BB148" s="15">
@@ -29057,7 +29057,7 @@
         <v>657.178</v>
       </c>
       <c r="BA149" s="10">
-        <f>AT149+AY149</f>
+        <f t="shared" si="1"/>
         <v>116.78700000000001</v>
       </c>
       <c r="BB149" s="15">
@@ -29295,7 +29295,7 @@
         <v>668.18899999999996</v>
       </c>
       <c r="BA150" s="10">
-        <f>AT150+AY150</f>
+        <f t="shared" si="1"/>
         <v>121.982</v>
       </c>
       <c r="BB150" s="15">
@@ -29538,7 +29538,7 @@
         <v>679.91600000000005</v>
       </c>
       <c r="BA151" s="10">
-        <f>AT151+AY151</f>
+        <f t="shared" si="1"/>
         <v>124.3</v>
       </c>
       <c r="BB151" s="15">
@@ -29781,7 +29781,7 @@
         <v>690.95299999999997</v>
       </c>
       <c r="BA152" s="10">
-        <f>AT152+AY152</f>
+        <f t="shared" si="1"/>
         <v>124.789</v>
       </c>
       <c r="BB152" s="15">
@@ -30024,7 +30024,7 @@
         <v>702.12099999999998</v>
       </c>
       <c r="BA153" s="10">
-        <f>AT153+AY153</f>
+        <f t="shared" si="1"/>
         <v>124.86499999999999</v>
       </c>
       <c r="BB153" s="15">
@@ -30267,7 +30267,7 @@
         <v>712.6</v>
       </c>
       <c r="BA154" s="10">
-        <f>AT154+AY154</f>
+        <f t="shared" ref="BA154:BA217" si="2">AT154+AY154</f>
         <v>126.012</v>
       </c>
       <c r="BB154" s="15">
@@ -30510,7 +30510,7 @@
         <v>723.77</v>
       </c>
       <c r="BA155" s="10">
-        <f>AT155+AY155</f>
+        <f t="shared" si="2"/>
         <v>127.51900000000001</v>
       </c>
       <c r="BB155" s="15">
@@ -30753,7 +30753,7 @@
         <v>736.07600000000002</v>
       </c>
       <c r="BA156" s="10">
-        <f>AT156+AY156</f>
+        <f t="shared" si="2"/>
         <v>131.34</v>
       </c>
       <c r="BB156" s="15">
@@ -30996,7 +30996,7 @@
         <v>749.08600000000001</v>
       </c>
       <c r="BA157" s="10">
-        <f>AT157+AY157</f>
+        <f t="shared" si="2"/>
         <v>135.333</v>
       </c>
       <c r="BB157" s="15">
@@ -31239,7 +31239,7 @@
         <v>763.80200000000002</v>
       </c>
       <c r="BA158" s="10">
-        <f>AT158+AY158</f>
+        <f t="shared" si="2"/>
         <v>138.464</v>
       </c>
       <c r="BB158" s="15">
@@ -31482,7 +31482,7 @@
         <v>777.68</v>
       </c>
       <c r="BA159" s="10">
-        <f>AT159+AY159</f>
+        <f t="shared" si="2"/>
         <v>143.05199999999999</v>
       </c>
       <c r="BB159" s="15">
@@ -31725,7 +31725,7 @@
         <v>791.37099999999998</v>
       </c>
       <c r="BA160" s="10">
-        <f>AT160+AY160</f>
+        <f t="shared" si="2"/>
         <v>150.33199999999999</v>
       </c>
       <c r="BB160" s="15">
@@ -31968,7 +31968,7 @@
         <v>805.13400000000001</v>
       </c>
       <c r="BA161" s="10">
-        <f>AT161+AY161</f>
+        <f t="shared" si="2"/>
         <v>157.285</v>
       </c>
       <c r="BB161" s="15">
@@ -32211,7 +32211,7 @@
         <v>818.428</v>
       </c>
       <c r="BA162" s="10">
-        <f>AT162+AY162</f>
+        <f t="shared" si="2"/>
         <v>169.19800000000001</v>
       </c>
       <c r="BB162" s="15">
@@ -32454,7 +32454,7 @@
         <v>831.68299999999999</v>
       </c>
       <c r="BA163" s="10">
-        <f>AT163+AY163</f>
+        <f t="shared" si="2"/>
         <v>177.75899999999999</v>
       </c>
       <c r="BB163" s="15">
@@ -32697,7 +32697,7 @@
         <v>844.88800000000003</v>
       </c>
       <c r="BA164" s="10">
-        <f>AT164+AY164</f>
+        <f t="shared" si="2"/>
         <v>188.78500000000003</v>
       </c>
       <c r="BB164" s="15">
@@ -32940,7 +32940,7 @@
         <v>858.03300000000002</v>
       </c>
       <c r="BA165" s="10">
-        <f>AT165+AY165</f>
+        <f t="shared" si="2"/>
         <v>190.77900000000002</v>
       </c>
       <c r="BB165" s="15">
@@ -33183,7 +33183,7 @@
         <v>870.02099999999996</v>
       </c>
       <c r="BA166" s="10">
-        <f>AT166+AY166</f>
+        <f t="shared" si="2"/>
         <v>192.72900000000001</v>
       </c>
       <c r="BB166" s="15">
@@ -33426,7 +33426,7 @@
         <v>882.23</v>
       </c>
       <c r="BA167" s="10">
-        <f>AT167+AY167</f>
+        <f t="shared" si="2"/>
         <v>193.13900000000001</v>
       </c>
       <c r="BB167" s="15">
@@ -33669,7 +33669,7 @@
         <v>895.01400000000001</v>
       </c>
       <c r="BA168" s="10">
-        <f>AT168+AY168</f>
+        <f t="shared" si="2"/>
         <v>194.68600000000001</v>
       </c>
       <c r="BB168" s="15">
@@ -33912,7 +33912,7 @@
         <v>906.86500000000001</v>
       </c>
       <c r="BA169" s="10">
-        <f>AT169+AY169</f>
+        <f t="shared" si="2"/>
         <v>190.126</v>
       </c>
       <c r="BB169" s="15">
@@ -34155,7 +34155,7 @@
         <v>918.971</v>
       </c>
       <c r="BA170" s="10">
-        <f>AT170+AY170</f>
+        <f t="shared" si="2"/>
         <v>196.68600000000001</v>
       </c>
       <c r="BB170" s="15">
@@ -34398,7 +34398,7 @@
         <v>928.94600000000003</v>
       </c>
       <c r="BA171" s="10">
-        <f>AT171+AY171</f>
+        <f t="shared" si="2"/>
         <v>200.94</v>
       </c>
       <c r="BB171" s="15">
@@ -34641,7 +34641,7 @@
         <v>937.78099999999995</v>
       </c>
       <c r="BA172" s="10">
-        <f>AT172+AY172</f>
+        <f t="shared" si="2"/>
         <v>203.648</v>
       </c>
       <c r="BB172" s="15">
@@ -34884,7 +34884,7 @@
         <v>943.87300000000005</v>
       </c>
       <c r="BA173" s="10">
-        <f>AT173+AY173</f>
+        <f t="shared" si="2"/>
         <v>209.02599999999998</v>
       </c>
       <c r="BB173" s="15">
@@ -35127,7 +35127,7 @@
         <v>948.16899999999998</v>
       </c>
       <c r="BA174" s="10">
-        <f>AT174+AY174</f>
+        <f t="shared" si="2"/>
         <v>202.93</v>
       </c>
       <c r="BB174" s="15">
@@ -35370,7 +35370,7 @@
         <v>955.18100000000004</v>
       </c>
       <c r="BA175" s="10">
-        <f>AT175+AY175</f>
+        <f t="shared" si="2"/>
         <v>205.547</v>
       </c>
       <c r="BB175" s="15">
@@ -35613,7 +35613,7 @@
         <v>963.35199999999998</v>
       </c>
       <c r="BA176" s="10">
-        <f>AT176+AY176</f>
+        <f t="shared" si="2"/>
         <v>248.87</v>
       </c>
       <c r="BB176" s="15">
@@ -35856,7 +35856,7 @@
         <v>974.27599999999995</v>
       </c>
       <c r="BA177" s="10">
-        <f>AT177+AY177</f>
+        <f t="shared" si="2"/>
         <v>209.434</v>
       </c>
       <c r="BB177" s="15">
@@ -36099,7 +36099,7 @@
         <v>986.16600000000005</v>
       </c>
       <c r="BA178" s="10">
-        <f>AT178+AY178</f>
+        <f t="shared" si="2"/>
         <v>218.03100000000001</v>
       </c>
       <c r="BB178" s="15">
@@ -36342,7 +36342,7 @@
         <v>997.53599999999994</v>
       </c>
       <c r="BA179" s="10">
-        <f>AT179+AY179</f>
+        <f t="shared" si="2"/>
         <v>217.07499999999999</v>
       </c>
       <c r="BB179" s="15">
@@ -36585,7 +36585,7 @@
         <v>1008.696</v>
       </c>
       <c r="BA180" s="10">
-        <f>AT180+AY180</f>
+        <f t="shared" si="2"/>
         <v>224.06899999999999</v>
       </c>
       <c r="BB180" s="15">
@@ -36828,7 +36828,7 @@
         <v>1021.6</v>
       </c>
       <c r="BA181" s="10">
-        <f>AT181+AY181</f>
+        <f t="shared" si="2"/>
         <v>231.83600000000001</v>
       </c>
       <c r="BB181" s="15">
@@ -37071,7 +37071,7 @@
         <v>1033.2850000000001</v>
       </c>
       <c r="BA182" s="10">
-        <f>AT182+AY182</f>
+        <f t="shared" si="2"/>
         <v>279.87200000000001</v>
       </c>
       <c r="BB182" s="15">
@@ -37314,7 +37314,7 @@
         <v>1046.97</v>
       </c>
       <c r="BA183" s="10">
-        <f>AT183+AY183</f>
+        <f t="shared" si="2"/>
         <v>253.273</v>
       </c>
       <c r="BB183" s="15">
@@ -37557,7 +37557,7 @@
         <v>1062.27</v>
       </c>
       <c r="BA184" s="10">
-        <f>AT184+AY184</f>
+        <f t="shared" si="2"/>
         <v>260.91000000000003</v>
       </c>
       <c r="BB184" s="15">
@@ -37800,7 +37800,7 @@
         <v>1079.9069999999999</v>
       </c>
       <c r="BA185" s="10">
-        <f>AT185+AY185</f>
+        <f t="shared" si="2"/>
         <v>267.35599999999999</v>
       </c>
       <c r="BB185" s="15">
@@ -38043,7 +38043,7 @@
         <v>1099.1500000000001</v>
       </c>
       <c r="BA186" s="10">
-        <f>AT186+AY186</f>
+        <f t="shared" si="2"/>
         <v>270.61099999999999</v>
       </c>
       <c r="BB186" s="15">
@@ -38286,7 +38286,7 @@
         <v>1115.7529999999999</v>
       </c>
       <c r="BA187" s="10">
-        <f>AT187+AY187</f>
+        <f t="shared" si="2"/>
         <v>276.99700000000001</v>
       </c>
       <c r="BB187" s="15">
@@ -38529,7 +38529,7 @@
         <v>1130.7619999999999</v>
       </c>
       <c r="BA188" s="10">
-        <f>AT188+AY188</f>
+        <f t="shared" si="2"/>
         <v>285.39600000000002</v>
       </c>
       <c r="BB188" s="15">
@@ -38772,7 +38772,7 @@
         <v>1143.8589999999999</v>
       </c>
       <c r="BA189" s="10">
-        <f>AT189+AY189</f>
+        <f t="shared" si="2"/>
         <v>302.29700000000003</v>
       </c>
       <c r="BB189" s="15">
@@ -39015,7 +39015,7 @@
         <v>1155.575</v>
       </c>
       <c r="BA190" s="10">
-        <f>AT190+AY190</f>
+        <f t="shared" si="2"/>
         <v>306.19099999999997</v>
       </c>
       <c r="BB190" s="15">
@@ -39258,7 +39258,7 @@
         <v>1167.56</v>
       </c>
       <c r="BA191" s="10">
-        <f>AT191+AY191</f>
+        <f t="shared" si="2"/>
         <v>318.74200000000002</v>
       </c>
       <c r="BB191" s="15">
@@ -39501,7 +39501,7 @@
         <v>1181.8810000000001</v>
       </c>
       <c r="BA192" s="10">
-        <f>AT192+AY192</f>
+        <f t="shared" si="2"/>
         <v>329.88299999999998</v>
       </c>
       <c r="BB192" s="15">
@@ -39744,7 +39744,7 @@
         <v>1196.21</v>
       </c>
       <c r="BA193" s="10">
-        <f>AT193+AY193</f>
+        <f t="shared" si="2"/>
         <v>339.62799999999999</v>
       </c>
       <c r="BB193" s="15">
@@ -39987,7 +39987,7 @@
         <v>1213.3019999999999</v>
       </c>
       <c r="BA194" s="10">
-        <f>AT194+AY194</f>
+        <f t="shared" si="2"/>
         <v>347.67</v>
       </c>
       <c r="BB194" s="15">
@@ -40230,7 +40230,7 @@
         <v>1231.2239999999999</v>
       </c>
       <c r="BA195" s="10">
-        <f>AT195+AY195</f>
+        <f t="shared" si="2"/>
         <v>356.21</v>
       </c>
       <c r="BB195" s="15">
@@ -40473,7 +40473,7 @@
         <v>1247.806</v>
       </c>
       <c r="BA196" s="10">
-        <f>AT196+AY196</f>
+        <f t="shared" si="2"/>
         <v>364.39499999999998</v>
       </c>
       <c r="BB196" s="15">
@@ -40716,7 +40716,7 @@
         <v>1264.973</v>
       </c>
       <c r="BA197" s="10">
-        <f>AT197+AY197</f>
+        <f t="shared" si="2"/>
         <v>372.16899999999998</v>
       </c>
       <c r="BB197" s="15">
@@ -40959,7 +40959,7 @@
         <v>1281.346</v>
       </c>
       <c r="BA198" s="10">
-        <f>AT198+AY198</f>
+        <f t="shared" si="2"/>
         <v>383.50900000000001</v>
       </c>
       <c r="BB198" s="15">
@@ -41202,7 +41202,7 @@
         <v>1300.0340000000001</v>
       </c>
       <c r="BA199" s="10">
-        <f>AT199+AY199</f>
+        <f t="shared" si="2"/>
         <v>386.43</v>
       </c>
       <c r="BB199" s="15">
@@ -41445,7 +41445,7 @@
         <v>1318.769</v>
       </c>
       <c r="BA200" s="10">
-        <f>AT200+AY200</f>
+        <f t="shared" si="2"/>
         <v>385.21699999999998</v>
       </c>
       <c r="BB200" s="15">
@@ -41688,7 +41688,7 @@
         <v>1338.797</v>
       </c>
       <c r="BA201" s="10">
-        <f>AT201+AY201</f>
+        <f t="shared" si="2"/>
         <v>379.375</v>
       </c>
       <c r="BB201" s="15">
@@ -41931,7 +41931,7 @@
         <v>1358.6869999999999</v>
       </c>
       <c r="BA202" s="10">
-        <f>AT202+AY202</f>
+        <f t="shared" si="2"/>
         <v>368.74599999999998</v>
       </c>
       <c r="BB202" s="15">
@@ -42174,7 +42174,7 @@
         <v>1383.2080000000001</v>
       </c>
       <c r="BA203" s="10">
-        <f>AT203+AY203</f>
+        <f t="shared" si="2"/>
         <v>366.55799999999999</v>
       </c>
       <c r="BB203" s="15">
@@ -42417,7 +42417,7 @@
         <v>1410.6559999999999</v>
       </c>
       <c r="BA204" s="10">
-        <f>AT204+AY204</f>
+        <f t="shared" si="2"/>
         <v>375.45399999999995</v>
       </c>
       <c r="BB204" s="15">
@@ -42660,7 +42660,7 @@
         <v>1443.1949999999999</v>
       </c>
       <c r="BA205" s="10">
-        <f>AT205+AY205</f>
+        <f t="shared" si="2"/>
         <v>386.55700000000002</v>
       </c>
       <c r="BB205" s="15">
@@ -42903,7 +42903,7 @@
         <v>1478.97</v>
       </c>
       <c r="BA206" s="10">
-        <f>AT206+AY206</f>
+        <f t="shared" si="2"/>
         <v>400.56900000000002</v>
       </c>
       <c r="BB206" s="15">
@@ -43146,7 +43146,7 @@
         <v>1506.133</v>
       </c>
       <c r="BA207" s="10">
-        <f>AT207+AY207</f>
+        <f t="shared" si="2"/>
         <v>412.012</v>
       </c>
       <c r="BB207" s="15">
@@ -43389,7 +43389,7 @@
         <v>1524.963</v>
       </c>
       <c r="BA208" s="10">
-        <f>AT208+AY208</f>
+        <f t="shared" si="2"/>
         <v>415.98599999999999</v>
       </c>
       <c r="BB208" s="15">
@@ -43632,7 +43632,7 @@
         <v>1534.8440000000001</v>
       </c>
       <c r="BA209" s="10">
-        <f>AT209+AY209</f>
+        <f t="shared" si="2"/>
         <v>412.25700000000001</v>
       </c>
       <c r="BB209" s="15">
@@ -43875,7 +43875,7 @@
         <v>1566.444</v>
       </c>
       <c r="BA210" s="10">
-        <f>AT210+AY210</f>
+        <f t="shared" si="2"/>
         <v>404.202</v>
       </c>
       <c r="BB210" s="15">
@@ -44118,7 +44118,7 @@
         <v>1594.02</v>
       </c>
       <c r="BA211" s="10">
-        <f>AT211+AY211</f>
+        <f t="shared" si="2"/>
         <v>408.75900000000001</v>
       </c>
       <c r="BB211" s="15">
@@ -44361,7 +44361,7 @@
         <v>1611.579</v>
       </c>
       <c r="BA212" s="10">
-        <f>AT212+AY212</f>
+        <f t="shared" si="2"/>
         <v>362.17499999999995</v>
       </c>
       <c r="BB212" s="15">
@@ -44604,7 +44604,7 @@
         <v>1625.991</v>
       </c>
       <c r="BA213" s="10">
-        <f>AT213+AY213</f>
+        <f t="shared" si="2"/>
         <v>397.12299999999999</v>
       </c>
       <c r="BB213" s="15">
@@ -44847,7 +44847,7 @@
         <v>1636.3219999999999</v>
       </c>
       <c r="BA214" s="10">
-        <f>AT214+AY214</f>
+        <f t="shared" si="2"/>
         <v>412.29300000000001</v>
       </c>
       <c r="BB214" s="15">
@@ -45090,7 +45090,7 @@
         <v>1648.854</v>
       </c>
       <c r="BA215" s="10">
-        <f>AT215+AY215</f>
+        <f t="shared" si="2"/>
         <v>424.31700000000001</v>
       </c>
       <c r="BB215" s="15">
@@ -45333,7 +45333,7 @@
         <v>1665.2159999999999</v>
       </c>
       <c r="BA216" s="10">
-        <f>AT216+AY216</f>
+        <f t="shared" si="2"/>
         <v>428.16399999999999</v>
       </c>
       <c r="BB216" s="15">
@@ -45576,7 +45576,7 @@
         <v>1681.5050000000001</v>
       </c>
       <c r="BA217" s="10">
-        <f>AT217+AY217</f>
+        <f t="shared" si="2"/>
         <v>434.63600000000002</v>
       </c>
       <c r="BB217" s="15">
@@ -45819,7 +45819,7 @@
         <v>1695.4639999999999</v>
       </c>
       <c r="BA218" s="10">
-        <f>AT218+AY218</f>
+        <f t="shared" ref="BA218:BA279" si="3">AT218+AY218</f>
         <v>435.20100000000002</v>
       </c>
       <c r="BB218" s="15">
@@ -46062,7 +46062,7 @@
         <v>1708.481</v>
       </c>
       <c r="BA219" s="10">
-        <f>AT219+AY219</f>
+        <f t="shared" si="3"/>
         <v>435.47399999999999</v>
       </c>
       <c r="BB219" s="15">
@@ -46305,7 +46305,7 @@
         <v>1726.067</v>
       </c>
       <c r="BA220" s="10">
-        <f>AT220+AY220</f>
+        <f t="shared" si="3"/>
         <v>457.68200000000002</v>
       </c>
       <c r="BB220" s="15">
@@ -46548,7 +46548,7 @@
         <v>1746.3109999999999</v>
       </c>
       <c r="BA221" s="10">
-        <f>AT221+AY221</f>
+        <f t="shared" si="3"/>
         <v>495.267</v>
       </c>
       <c r="BB221" s="15">
@@ -46791,7 +46791,7 @@
         <v>1774.0920000000001</v>
       </c>
       <c r="BA222" s="10">
-        <f>AT222+AY222</f>
+        <f t="shared" si="3"/>
         <v>532.54900000000009</v>
       </c>
       <c r="BB222" s="15">
@@ -47034,7 +47034,7 @@
         <v>1803.5119999999999</v>
       </c>
       <c r="BA223" s="10">
-        <f>AT223+AY223</f>
+        <f t="shared" si="3"/>
         <v>560.21400000000006</v>
       </c>
       <c r="BB223" s="15">
@@ -47277,7 +47277,7 @@
         <v>1835.806</v>
       </c>
       <c r="BA224" s="10">
-        <f>AT224+AY224</f>
+        <f t="shared" si="3"/>
         <v>605.61099999999999</v>
       </c>
       <c r="BB224" s="15">
@@ -47520,7 +47520,7 @@
         <v>1873.8910000000001</v>
       </c>
       <c r="BA225" s="10">
-        <f>AT225+AY225</f>
+        <f t="shared" si="3"/>
         <v>668.3950000000001</v>
       </c>
       <c r="BB225" s="15">
@@ -47763,7 +47763,7 @@
         <v>1911.5440000000001</v>
       </c>
       <c r="BA226" s="10">
-        <f>AT226+AY226</f>
+        <f t="shared" si="3"/>
         <v>575.0809999999999</v>
       </c>
       <c r="BB226" s="15">
@@ -48006,7 +48006,7 @@
         <v>1948.463</v>
       </c>
       <c r="BA227" s="10">
-        <f>AT227+AY227</f>
+        <f t="shared" si="3"/>
         <v>592.01099999999997</v>
       </c>
       <c r="BB227" s="15">
@@ -48249,7 +48249,7 @@
         <v>1989.85</v>
       </c>
       <c r="BA228" s="10">
-        <f>AT228+AY228</f>
+        <f t="shared" si="3"/>
         <v>651.85599999999999</v>
       </c>
       <c r="BB228" s="15">
@@ -48492,7 +48492,7 @@
         <v>2034.2339999999999</v>
       </c>
       <c r="BA229" s="10">
-        <f>AT229+AY229</f>
+        <f t="shared" si="3"/>
         <v>637.87099999999998</v>
       </c>
       <c r="BB229" s="15">
@@ -48735,7 +48735,7 @@
         <v>2070.6779999999999</v>
       </c>
       <c r="BA230" s="10">
-        <f>AT230+AY230</f>
+        <f t="shared" si="3"/>
         <v>714.0390000000001</v>
       </c>
       <c r="BB230" s="15">
@@ -48978,7 +48978,7 @@
         <v>2107.2420000000002</v>
       </c>
       <c r="BA231" s="10">
-        <f>AT231+AY231</f>
+        <f t="shared" si="3"/>
         <v>747.154</v>
       </c>
       <c r="BB231" s="15">
@@ -49221,7 +49221,7 @@
         <v>2140.8789999999999</v>
       </c>
       <c r="BA232" s="10">
-        <f>AT232+AY232</f>
+        <f t="shared" si="3"/>
         <v>765.572</v>
       </c>
       <c r="BB232" s="15">
@@ -49464,7 +49464,7 @@
         <v>2177.6889999999999</v>
       </c>
       <c r="BA233" s="10">
-        <f>AT233+AY233</f>
+        <f t="shared" si="3"/>
         <v>793.36199999999997</v>
       </c>
       <c r="BB233" s="15">
@@ -49707,7 +49707,7 @@
         <v>2214.8789999999999</v>
       </c>
       <c r="BA234" s="10">
-        <f>AT234+AY234</f>
+        <f t="shared" si="3"/>
         <v>820.30700000000002</v>
       </c>
       <c r="BB234" s="15">
@@ -49950,7 +49950,7 @@
         <v>2241.3409999999999</v>
       </c>
       <c r="BA235" s="10">
-        <f>AT235+AY235</f>
+        <f t="shared" si="3"/>
         <v>858.76299999999992</v>
       </c>
       <c r="BB235" s="15">
@@ -50193,7 +50193,7 @@
         <v>2265.0079999999998</v>
       </c>
       <c r="BA236" s="10">
-        <f>AT236+AY236</f>
+        <f t="shared" si="3"/>
         <v>868.02499999999998</v>
       </c>
       <c r="BB236" s="15">
@@ -50436,7 +50436,7 @@
         <v>2290.0039999999999</v>
       </c>
       <c r="BA237" s="10">
-        <f>AT237+AY237</f>
+        <f t="shared" si="3"/>
         <v>866.8</v>
       </c>
       <c r="BB237" s="15">
@@ -50679,7 +50679,7 @@
         <v>2319.942</v>
       </c>
       <c r="BA238" s="10">
-        <f>AT238+AY238</f>
+        <f t="shared" si="3"/>
         <v>902.95400000000006</v>
       </c>
       <c r="BB238" s="15">
@@ -50922,7 +50922,7 @@
         <v>2347.3020000000001</v>
       </c>
       <c r="BA239" s="10">
-        <f>AT239+AY239</f>
+        <f t="shared" si="3"/>
         <v>866.41099999999994</v>
       </c>
       <c r="BB239" s="15">
@@ -51165,7 +51165,7 @@
         <v>2376.0479999999998</v>
       </c>
       <c r="BA240" s="10">
-        <f>AT240+AY240</f>
+        <f t="shared" si="3"/>
         <v>835.04199999999992</v>
       </c>
       <c r="BB240" s="15">
@@ -51408,7 +51408,7 @@
         <v>2392.0740000000001</v>
       </c>
       <c r="BA241" s="10">
-        <f>AT241+AY241</f>
+        <f t="shared" si="3"/>
         <v>500.13099999999997</v>
       </c>
       <c r="BB241" s="15">
@@ -51651,7 +51651,7 @@
         <v>2386.663</v>
       </c>
       <c r="BA242" s="10">
-        <f>AT242+AY242</f>
+        <f t="shared" si="3"/>
         <v>479.774</v>
       </c>
       <c r="BB242" s="15">
@@ -51894,7 +51894,7 @@
         <v>2369.4499999999998</v>
       </c>
       <c r="BA243" s="10">
-        <f>AT243+AY243</f>
+        <f t="shared" si="3"/>
         <v>483.31200000000001</v>
       </c>
       <c r="BB243" s="15">
@@ -52137,7 +52137,7 @@
         <v>2359.0549999999998</v>
       </c>
       <c r="BA244" s="10">
-        <f>AT244+AY244</f>
+        <f t="shared" si="3"/>
         <v>633.57299999999998</v>
       </c>
       <c r="BB244" s="15">
@@ -52380,7 +52380,7 @@
         <v>2370.739</v>
       </c>
       <c r="BA245" s="10">
-        <f>AT245+AY245</f>
+        <f t="shared" si="3"/>
         <v>557.08600000000001</v>
       </c>
       <c r="BB245" s="15">
@@ -52623,7 +52623,7 @@
         <v>2375.5700000000002</v>
       </c>
       <c r="BA246" s="10">
-        <f>AT246+AY246</f>
+        <f t="shared" si="3"/>
         <v>589.62799999999993</v>
       </c>
       <c r="BB246" s="15">
@@ -52866,7 +52866,7 @@
         <v>2383.0929999999998</v>
       </c>
       <c r="BA247" s="10">
-        <f>AT247+AY247</f>
+        <f t="shared" si="3"/>
         <v>542.69799999999998</v>
       </c>
       <c r="BB247" s="15">
@@ -53109,7 +53109,7 @@
         <v>2392.5619999999999</v>
       </c>
       <c r="BA248" s="10">
-        <f>AT248+AY248</f>
+        <f t="shared" si="3"/>
         <v>643.26599999999996</v>
       </c>
       <c r="BB248" s="15">
@@ -53352,7 +53352,7 @@
         <v>2412.48</v>
       </c>
       <c r="BA249" s="10">
-        <f>AT249+AY249</f>
+        <f t="shared" si="3"/>
         <v>715.02499999999998</v>
       </c>
       <c r="BB249" s="15">
@@ -53595,7 +53595,7 @@
         <v>2436.393</v>
       </c>
       <c r="BA250" s="10">
-        <f>AT250+AY250</f>
+        <f t="shared" si="3"/>
         <v>729.76299999999992</v>
       </c>
       <c r="BB250" s="15">
@@ -53838,7 +53838,7 @@
         <v>2462.194</v>
       </c>
       <c r="BA251" s="10">
-        <f>AT251+AY251</f>
+        <f t="shared" si="3"/>
         <v>721.04100000000005</v>
       </c>
       <c r="BB251" s="15">
@@ -54081,7 +54081,7 @@
         <v>2487.9029999999998</v>
       </c>
       <c r="BA252" s="10">
-        <f>AT252+AY252</f>
+        <f t="shared" si="3"/>
         <v>752.36299999999994</v>
       </c>
       <c r="BB252" s="15">
@@ -54300,7 +54300,7 @@
         <v>2511.3710000000001</v>
       </c>
       <c r="BA253" s="10">
-        <f>AT253+AY253</f>
+        <f t="shared" si="3"/>
         <v>757.93700000000001</v>
       </c>
       <c r="BB253" s="15">
@@ -54519,7 +54519,7 @@
         <v>2536.5140000000001</v>
       </c>
       <c r="BA254" s="10">
-        <f>AT254+AY254</f>
+        <f t="shared" si="3"/>
         <v>854.29300000000001</v>
       </c>
       <c r="BB254" s="15">
@@ -54738,7 +54738,7 @@
         <v>2564.424</v>
       </c>
       <c r="BA255" s="10">
-        <f>AT255+AY255</f>
+        <f t="shared" si="3"/>
         <v>894.23200000000008</v>
       </c>
       <c r="BB255" s="15">
@@ -54957,7 +54957,7 @@
         <v>2591.0369999999998</v>
       </c>
       <c r="BA256" s="10">
-        <f>AT256+AY256</f>
+        <f t="shared" si="3"/>
         <v>897.69100000000003</v>
       </c>
       <c r="BB256" s="15">
@@ -55176,7 +55176,7 @@
         <v>2612.0120000000002</v>
       </c>
       <c r="BA257" s="10">
-        <f>AT257+AY257</f>
+        <f t="shared" si="3"/>
         <v>1118.9099999999999</v>
       </c>
       <c r="BB257" s="15">
@@ -55395,7 +55395,7 @@
         <v>2635.0450000000001</v>
       </c>
       <c r="BA258" s="10">
-        <f>AT258+AY258</f>
+        <f t="shared" si="3"/>
         <v>861.18100000000004</v>
       </c>
       <c r="BB258" s="15">
@@ -55614,7 +55614,7 @@
         <v>2664.192</v>
       </c>
       <c r="BA259" s="10">
-        <f>AT259+AY259</f>
+        <f t="shared" si="3"/>
         <v>1121.9079999999999</v>
       </c>
       <c r="BB259" s="15">
@@ -55833,7 +55833,7 @@
         <v>2694.1979999999999</v>
       </c>
       <c r="BA260" s="10">
-        <f>AT260+AY260</f>
+        <f t="shared" si="3"/>
         <v>953.875</v>
       </c>
       <c r="BB260" s="15">
@@ -56052,7 +56052,7 @@
         <v>2731.4380000000001</v>
       </c>
       <c r="BA261" s="10">
-        <f>AT261+AY261</f>
+        <f t="shared" si="3"/>
         <v>1076.1510000000001</v>
       </c>
       <c r="BB261" s="15">
@@ -56271,7 +56271,7 @@
         <v>2768.393</v>
       </c>
       <c r="BA262" s="10">
-        <f>AT262+AY262</f>
+        <f t="shared" si="3"/>
         <v>1045.53</v>
       </c>
       <c r="BB262" s="15">
@@ -56490,7 +56490,7 @@
         <v>2798.2460000000001</v>
       </c>
       <c r="BA263" s="10">
-        <f>AT263+AY263</f>
+        <f t="shared" si="3"/>
         <v>1086.9459999999999</v>
       </c>
       <c r="BB263" s="15">
@@ -56709,7 +56709,7 @@
         <v>2834.6320000000001</v>
       </c>
       <c r="BA264" s="10">
-        <f>AT264+AY264</f>
+        <f t="shared" si="3"/>
         <v>1141.3389999999999</v>
       </c>
       <c r="BB264" s="15">
@@ -56928,7 +56928,7 @@
         <v>2866.58</v>
       </c>
       <c r="BA265" s="10">
-        <f>AT265+AY265</f>
+        <f t="shared" si="3"/>
         <v>1123.739</v>
       </c>
       <c r="BB265" s="15">
@@ -57147,7 +57147,7 @@
         <v>2886.4169999999999</v>
       </c>
       <c r="BA266" s="10">
-        <f>AT266+AY266</f>
+        <f t="shared" si="3"/>
         <v>1145.0140000000001</v>
       </c>
       <c r="BB266" s="15">
@@ -57366,7 +57366,7 @@
         <v>2907.623</v>
       </c>
       <c r="BA267" s="10">
-        <f>AT267+AY267</f>
+        <f t="shared" si="3"/>
         <v>1124.5329999999999</v>
       </c>
       <c r="BB267" s="15">
@@ -57585,7 +57585,7 @@
         <v>2930.9110000000001</v>
       </c>
       <c r="BA268" s="10">
-        <f>AT268+AY268</f>
+        <f t="shared" si="3"/>
         <v>1153.7380000000001</v>
       </c>
       <c r="BB268" s="15">
@@ -57801,7 +57801,7 @@
         <v>2944.9740000000002</v>
       </c>
       <c r="BA269" s="10">
-        <f>AT269+AY269</f>
+        <f t="shared" si="3"/>
         <v>1223.296</v>
       </c>
       <c r="BB269" s="15">
@@ -58017,7 +58017,7 @@
         <v>2953.5419999999999</v>
       </c>
       <c r="BA270" s="10">
-        <f>AT270+AY270</f>
+        <f t="shared" si="3"/>
         <v>1178.529</v>
       </c>
       <c r="BB270" s="15">
@@ -58233,7 +58233,7 @@
         <v>2979.5709999999999</v>
       </c>
       <c r="BA271" s="10">
-        <f>AT271+AY271</f>
+        <f t="shared" si="3"/>
         <v>1186.4649999999999</v>
       </c>
       <c r="BB271" s="15">
@@ -58449,7 +58449,7 @@
         <v>3001.4670000000001</v>
       </c>
       <c r="BA272" s="10">
-        <f>AT272+AY272</f>
+        <f t="shared" si="3"/>
         <v>1194.703</v>
       </c>
       <c r="BB272" s="15">
@@ -58660,7 +58660,7 @@
         <v>3027.4690000000001</v>
       </c>
       <c r="BA273" s="10">
-        <f>AT273+AY273</f>
+        <f t="shared" si="3"/>
         <v>1207.8149999999998</v>
       </c>
       <c r="BB273" s="15">
@@ -58869,7 +58869,7 @@
         <v>3064.9470000000001</v>
       </c>
       <c r="BA274" s="10">
-        <f>AT274+AY274</f>
+        <f t="shared" si="3"/>
         <v>1242.953</v>
       </c>
       <c r="BB274" s="15">
@@ -59078,7 +59078,7 @@
         <v>3101.0729999999999</v>
       </c>
       <c r="BA275" s="10">
-        <f>AT275+AY275</f>
+        <f t="shared" si="3"/>
         <v>1231.7740000000001</v>
       </c>
       <c r="BB275" s="15">
@@ -59287,7 +59287,7 @@
         <v>3134.7689999999998</v>
       </c>
       <c r="BA276" s="10">
-        <f>AT276+AY276</f>
+        <f t="shared" si="3"/>
         <v>1358.8219999999999</v>
       </c>
       <c r="BB276" s="15">
@@ -59493,7 +59493,7 @@
         <v>3163.9070000000002</v>
       </c>
       <c r="BA277" s="10">
-        <f>AT277+AY277</f>
+        <f t="shared" si="3"/>
         <v>2193.7260000000001</v>
       </c>
       <c r="BB277" s="15">
@@ -59699,7 +59699,7 @@
         <v>3203.431</v>
       </c>
       <c r="BA278" s="10">
-        <f>AT278+AY278</f>
+        <f t="shared" si="3"/>
         <v>1212.136</v>
       </c>
       <c r="BB278" s="15">
@@ -59888,7 +59888,7 @@
         <v>3255.1640000000002</v>
       </c>
       <c r="BA279" s="10">
-        <f>AT279+AY279</f>
+        <f t="shared" si="3"/>
         <v>1221.222</v>
       </c>
       <c r="BB279" s="10"/>
